--- a/People behaviour/Bristol_Mobility_Report_2020-2022.xlsx
+++ b/People behaviour/Bristol_Mobility_Report_2020-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/assatis/Documents/GitHub/Data-Science-Mini-Project/People behaviour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/io21478_bristol_ac_uk/Documents/TB2/Data Science Mini Project/Repo/Data-Science-Mini-Project/People behaviour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A008B64-58AC-2644-B757-7FE6438B8B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7A008B64-58AC-2644-B757-7FE6438B8B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E196AD-F45E-4119-A754-EA16A5C8BDC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{1C90FC79-E8FE-4C89-9025-667311763FD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C90FC79-E8FE-4C89-9025-667311763FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -220,7 +220,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3494385656307399E-2"/>
+          <c:y val="7.6779380079516776E-2"/>
+          <c:w val="0.93687058903791232"/>
+          <c:h val="0.87332848106134575"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -266,7 +276,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$725</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="724"/>
                 <c:pt idx="0">
                   <c:v>43876</c:v>
@@ -4673,7 +4683,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$725</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="724"/>
                 <c:pt idx="0">
                   <c:v>43876</c:v>
@@ -9080,7 +9090,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$725</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="724"/>
                 <c:pt idx="0">
                   <c:v>43876</c:v>
@@ -13487,7 +13497,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$725</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="724"/>
                 <c:pt idx="0">
                   <c:v>43876</c:v>
@@ -17819,7 +17829,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$725</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="724"/>
                 <c:pt idx="0">
                   <c:v>43876</c:v>
@@ -22226,7 +22236,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$725</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="724"/>
                 <c:pt idx="0">
                   <c:v>43876</c:v>
@@ -26623,7 +26633,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -27705,28 +27715,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE24C2-58ED-4ABF-9547-3A07D4417D11}">
   <dimension ref="A1:O725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27773,7 +27783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -27811,7 +27821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -27849,7 +27859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -27887,7 +27897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -27925,7 +27935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -27963,7 +27973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -28001,7 +28011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -28039,7 +28049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -28077,7 +28087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -28115,7 +28125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -28153,7 +28163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -28191,7 +28201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -28229,7 +28239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -28267,7 +28277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -28305,7 +28315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -28343,7 +28353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -28381,7 +28391,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -28419,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -28457,7 +28467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -28495,7 +28505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -28533,7 +28543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -28571,7 +28581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -28609,7 +28619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -28647,7 +28657,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -28685,7 +28695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -28723,7 +28733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -28761,7 +28771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -28799,7 +28809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -28837,7 +28847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -28875,7 +28885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -28913,7 +28923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -28951,7 +28961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -28989,7 +28999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -29027,7 +29037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -29065,7 +29075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -29103,7 +29113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -29141,7 +29151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -29179,7 +29189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -29217,7 +29227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -29255,7 +29265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -29293,7 +29303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -29331,7 +29341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -29369,7 +29379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -29407,7 +29417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -29445,7 +29455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -29483,7 +29493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -29521,7 +29531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -29559,7 +29569,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -29597,7 +29607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -29635,7 +29645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -29673,7 +29683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -29711,7 +29721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -29749,7 +29759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -29787,7 +29797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -29825,7 +29835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -29863,7 +29873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -29901,7 +29911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -29939,7 +29949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -29977,7 +29987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -30015,7 +30025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -30053,7 +30063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -30091,7 +30101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -30129,7 +30139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -30167,7 +30177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -30205,7 +30215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -30243,7 +30253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -30281,7 +30291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -30319,7 +30329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -30357,7 +30367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -30395,7 +30405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -30433,7 +30443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -30471,7 +30481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -30509,7 +30519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -30547,7 +30557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -30585,7 +30595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -30623,7 +30633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -30661,7 +30671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -30699,7 +30709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -30737,7 +30747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -30775,7 +30785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -30813,7 +30823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -30851,7 +30861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -30889,7 +30899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -30927,7 +30937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -30965,7 +30975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -31003,7 +31013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -31041,7 +31051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -31079,7 +31089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -31117,7 +31127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -31155,7 +31165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -31193,7 +31203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -31231,7 +31241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -31269,7 +31279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -31307,7 +31317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -31345,7 +31355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -31383,7 +31393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -31421,7 +31431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -31459,7 +31469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -31497,7 +31507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -31535,7 +31545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -31573,7 +31583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -31611,7 +31621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -31649,7 +31659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -31687,7 +31697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -31725,7 +31735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -31763,7 +31773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -31801,7 +31811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -31839,7 +31849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -31877,7 +31887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -31915,7 +31925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -31953,7 +31963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -31991,7 +32001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -32029,7 +32039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -32067,7 +32077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -32105,7 +32115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -32143,7 +32153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -32181,7 +32191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -32219,7 +32229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -32257,7 +32267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -32295,7 +32305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -32333,7 +32343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -32371,7 +32381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -32409,7 +32419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -32447,7 +32457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -32485,7 +32495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -32523,7 +32533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -32561,7 +32571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -32599,7 +32609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -32637,7 +32647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -32675,7 +32685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -32713,7 +32723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -32751,7 +32761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -32789,7 +32799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -32827,7 +32837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -32865,7 +32875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -32903,7 +32913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -32941,7 +32951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -32979,7 +32989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -33017,7 +33027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -33055,7 +33065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -33093,7 +33103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -33131,7 +33141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -33169,7 +33179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -33207,7 +33217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -33245,7 +33255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -33283,7 +33293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -33321,7 +33331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -33359,7 +33369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -33397,7 +33407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -33435,7 +33445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -33473,7 +33483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -33511,7 +33521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -33549,7 +33559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -33587,7 +33597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -33625,7 +33635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -33663,7 +33673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -33701,7 +33711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -33739,7 +33749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -33777,7 +33787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -33815,7 +33825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -33853,7 +33863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -33891,7 +33901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -33929,7 +33939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -33967,7 +33977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -34005,7 +34015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -34043,7 +34053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -34081,7 +34091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -34119,7 +34129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -34157,7 +34167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -34195,7 +34205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -34233,7 +34243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -34271,7 +34281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -34309,7 +34319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -34347,7 +34357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -34385,7 +34395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -34423,7 +34433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -34461,7 +34471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -34499,7 +34509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -34537,7 +34547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -34575,7 +34585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -34613,7 +34623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -34651,7 +34661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -34689,7 +34699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -34727,7 +34737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -34765,7 +34775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -34800,7 +34810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -34835,7 +34845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -34870,7 +34880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -34905,7 +34915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -34940,7 +34950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -34975,7 +34985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -35010,7 +35020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -35045,7 +35055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -35080,7 +35090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -35115,7 +35125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -35150,7 +35160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -35185,7 +35195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -35220,7 +35230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -35255,7 +35265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -35290,7 +35300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -35325,7 +35335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -35360,7 +35370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -35395,7 +35405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -35430,7 +35440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -35465,7 +35475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -35500,7 +35510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -35535,7 +35545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -35570,7 +35580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -35605,7 +35615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -35640,7 +35650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -35678,7 +35688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -35716,7 +35726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -35754,7 +35764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -35792,7 +35802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -35830,7 +35840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -35868,7 +35878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -35906,7 +35916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -35944,7 +35954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -35982,7 +35992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -36020,7 +36030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -36058,7 +36068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -36096,7 +36106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -36134,7 +36144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -36172,7 +36182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -36210,7 +36220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -36248,7 +36258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -36286,7 +36296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -36324,7 +36334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -36362,7 +36372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -36400,7 +36410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -36438,7 +36448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -36476,7 +36486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -36514,7 +36524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -36552,7 +36562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -36590,7 +36600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -36628,7 +36638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -36666,7 +36676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -36704,7 +36714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -36742,7 +36752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -36780,7 +36790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -36818,7 +36828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -36856,7 +36866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -36894,7 +36904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -36932,7 +36942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -36970,7 +36980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -37008,7 +37018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -37046,7 +37056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -37084,7 +37094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -37122,7 +37132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -37160,7 +37170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -37198,7 +37208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -37236,7 +37246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -37274,7 +37284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -37312,7 +37322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -37350,7 +37360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -37388,7 +37398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -37426,7 +37436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -37464,7 +37474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>9</v>
       </c>
@@ -37502,7 +37512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -37540,7 +37550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -37578,7 +37588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -37616,7 +37626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -37654,7 +37664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -37692,7 +37702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -37730,7 +37740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -37768,7 +37778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -37806,7 +37816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -37844,7 +37854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -37882,7 +37892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -37920,7 +37930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -37958,7 +37968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -37996,7 +38006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -38034,7 +38044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -38072,7 +38082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -38110,7 +38120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -38148,7 +38158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -38186,7 +38196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -38224,7 +38234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -38262,7 +38272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -38300,7 +38310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -38338,7 +38348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -38376,7 +38386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -38414,7 +38424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -38452,7 +38462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -38490,7 +38500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -38528,7 +38538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -38566,7 +38576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -38604,7 +38614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -38642,7 +38652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -38680,7 +38690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -38718,7 +38728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -38756,7 +38766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -38794,7 +38804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>9</v>
       </c>
@@ -38832,7 +38842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -38870,7 +38880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>9</v>
       </c>
@@ -38908,7 +38918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -38946,7 +38956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -38984,7 +38994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -39022,7 +39032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>9</v>
       </c>
@@ -39060,7 +39070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -39098,7 +39108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -39136,7 +39146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -39174,7 +39184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -39212,7 +39222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -39250,7 +39260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>9</v>
       </c>
@@ -39288,7 +39298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -39326,7 +39336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -39364,7 +39374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -39402,7 +39412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>9</v>
       </c>
@@ -39440,7 +39450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -39478,7 +39488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -39516,7 +39526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -39554,7 +39564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -39592,7 +39602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -39630,7 +39640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -39668,7 +39678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -39706,7 +39716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -39744,7 +39754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -39782,7 +39792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -39820,7 +39830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -39858,7 +39868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -39896,7 +39906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -39934,7 +39944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -39972,7 +39982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>9</v>
       </c>
@@ -40010,7 +40020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -40048,7 +40058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -40086,7 +40096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -40124,7 +40134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -40162,7 +40172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -40200,7 +40210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -40238,7 +40248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -40276,7 +40286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -40314,7 +40324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -40352,7 +40362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -40390,7 +40400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -40428,7 +40438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -40466,7 +40476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -40504,7 +40514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -40542,7 +40552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -40580,7 +40590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -40618,7 +40628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -40656,7 +40666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -40694,7 +40704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -40732,7 +40742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -40770,7 +40780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -40808,7 +40818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -40846,7 +40856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -40884,7 +40894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -40922,7 +40932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -40960,7 +40970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -40998,7 +41008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -41036,7 +41046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -41074,7 +41084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -41112,7 +41122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>9</v>
       </c>
@@ -41150,7 +41160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -41188,7 +41198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -41226,7 +41236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>9</v>
       </c>
@@ -41264,7 +41274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -41302,7 +41312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -41340,7 +41350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -41378,7 +41388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -41416,7 +41426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -41454,7 +41464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -41492,7 +41502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -41530,7 +41540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>9</v>
       </c>
@@ -41568,7 +41578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -41606,7 +41616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -41644,7 +41654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -41682,7 +41692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -41720,7 +41730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -41758,7 +41768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -41796,7 +41806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -41834,7 +41844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -41872,7 +41882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -41910,7 +41920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>9</v>
       </c>
@@ -41948,7 +41958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -41986,7 +41996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -42024,7 +42034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -42062,7 +42072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -42100,7 +42110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -42138,7 +42148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>9</v>
       </c>
@@ -42176,7 +42186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -42214,7 +42224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -42252,7 +42262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -42290,7 +42300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -42328,7 +42338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -42366,7 +42376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -42404,7 +42414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -42442,7 +42452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -42480,7 +42490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -42518,7 +42528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -42556,7 +42566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>9</v>
       </c>
@@ -42594,7 +42604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>9</v>
       </c>
@@ -42632,7 +42642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -42670,7 +42680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -42708,7 +42718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>9</v>
       </c>
@@ -42746,7 +42756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -42784,7 +42794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -42822,7 +42832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>9</v>
       </c>
@@ -42860,7 +42870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>9</v>
       </c>
@@ -42898,7 +42908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -42936,7 +42946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -42974,7 +42984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>9</v>
       </c>
@@ -43012,7 +43022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -43050,7 +43060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -43088,7 +43098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -43126,7 +43136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -43164,7 +43174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -43202,7 +43212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -43240,7 +43250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -43278,7 +43288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -43316,7 +43326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -43354,7 +43364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -43392,7 +43402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -43430,7 +43440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -43468,7 +43478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -43506,7 +43516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -43544,7 +43554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -43582,7 +43592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>9</v>
       </c>
@@ -43620,7 +43630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -43658,7 +43668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -43696,7 +43706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -43734,7 +43744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -43772,7 +43782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -43810,7 +43820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -43848,7 +43858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -43886,7 +43896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -43924,7 +43934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>9</v>
       </c>
@@ -43962,7 +43972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -44000,7 +44010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>9</v>
       </c>
@@ -44038,7 +44048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -44076,7 +44086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -44114,7 +44124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -44152,7 +44162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -44190,7 +44200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -44228,7 +44238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -44266,7 +44276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -44304,7 +44314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -44342,7 +44352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -44380,7 +44390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -44418,7 +44428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -44456,7 +44466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -44494,7 +44504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -44532,7 +44542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -44570,7 +44580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -44608,7 +44618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -44646,7 +44656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -44684,7 +44694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -44722,7 +44732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -44760,7 +44770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -44798,7 +44808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -44836,7 +44846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -44874,7 +44884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -44912,7 +44922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -44950,7 +44960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -44988,7 +44998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -45026,7 +45036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -45064,7 +45074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -45102,7 +45112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -45140,7 +45150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -45178,7 +45188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -45216,7 +45226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -45254,7 +45264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -45292,7 +45302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -45330,7 +45340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -45368,7 +45378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -45406,7 +45416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -45444,7 +45454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -45482,7 +45492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>9</v>
       </c>
@@ -45520,7 +45530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -45558,7 +45568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -45596,7 +45606,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>9</v>
       </c>
@@ -45634,7 +45644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>9</v>
       </c>
@@ -45672,7 +45682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -45710,7 +45720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -45748,7 +45758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -45786,7 +45796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -45824,7 +45834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -45862,7 +45872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -45900,7 +45910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -45938,7 +45948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -45976,7 +45986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>9</v>
       </c>
@@ -46014,7 +46024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -46052,7 +46062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>9</v>
       </c>
@@ -46090,7 +46100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>9</v>
       </c>
@@ -46128,7 +46138,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -46166,7 +46176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -46204,7 +46214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -46242,7 +46252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -46280,7 +46290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -46318,7 +46328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -46356,7 +46366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -46394,7 +46404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -46432,7 +46442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -46470,7 +46480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>9</v>
       </c>
@@ -46508,7 +46518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -46546,7 +46556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -46584,7 +46594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -46622,7 +46632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -46660,7 +46670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -46698,7 +46708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -46736,7 +46746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -46774,7 +46784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -46812,7 +46822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -46850,7 +46860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>9</v>
       </c>
@@ -46888,7 +46898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>9</v>
       </c>
@@ -46926,7 +46936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -46964,7 +46974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -47002,7 +47012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -47040,7 +47050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>9</v>
       </c>
@@ -47078,7 +47088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -47116,7 +47126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -47154,7 +47164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -47192,7 +47202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -47230,7 +47240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -47268,7 +47278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -47306,7 +47316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -47344,7 +47354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -47382,7 +47392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -47420,7 +47430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -47458,7 +47468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -47496,7 +47506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>9</v>
       </c>
@@ -47534,7 +47544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -47572,7 +47582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -47610,7 +47620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -47648,7 +47658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>9</v>
       </c>
@@ -47686,7 +47696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -47724,7 +47734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -47762,7 +47772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -47800,7 +47810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -47838,7 +47848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -47876,7 +47886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>9</v>
       </c>
@@ -47914,7 +47924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -47952,7 +47962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>9</v>
       </c>
@@ -47990,7 +48000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -48028,7 +48038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>9</v>
       </c>
@@ -48066,7 +48076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>9</v>
       </c>
@@ -48104,7 +48114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -48142,7 +48152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -48180,7 +48190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -48218,7 +48228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -48256,7 +48266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>9</v>
       </c>
@@ -48294,7 +48304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -48332,7 +48342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -48370,7 +48380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -48408,7 +48418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -48446,7 +48456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>9</v>
       </c>
@@ -48484,7 +48494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>9</v>
       </c>
@@ -48522,7 +48532,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -48560,7 +48570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>9</v>
       </c>
@@ -48598,7 +48608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>9</v>
       </c>
@@ -48636,7 +48646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -48674,7 +48684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>9</v>
       </c>
@@ -48712,7 +48722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -48750,7 +48760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>9</v>
       </c>
@@ -48788,7 +48798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -48826,7 +48836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>9</v>
       </c>
@@ -48864,7 +48874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -48902,7 +48912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>9</v>
       </c>
@@ -48940,7 +48950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -48978,7 +48988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>9</v>
       </c>
@@ -49016,7 +49026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -49054,7 +49064,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>9</v>
       </c>
@@ -49092,7 +49102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -49130,7 +49140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>9</v>
       </c>
@@ -49168,7 +49178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -49206,7 +49216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>9</v>
       </c>
@@ -49244,7 +49254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>9</v>
       </c>
@@ -49282,7 +49292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>9</v>
       </c>
@@ -49320,7 +49330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -49358,7 +49368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>9</v>
       </c>
@@ -49396,7 +49406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -49434,7 +49444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>9</v>
       </c>
@@ -49472,7 +49482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -49510,7 +49520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>9</v>
       </c>
@@ -49548,7 +49558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -49586,7 +49596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>9</v>
       </c>
@@ -49624,7 +49634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>9</v>
       </c>
@@ -49662,7 +49672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -49700,7 +49710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>9</v>
       </c>
@@ -49738,7 +49748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>9</v>
       </c>
@@ -49776,7 +49786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>9</v>
       </c>
@@ -49814,7 +49824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -49852,7 +49862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -49890,7 +49900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -49928,7 +49938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>9</v>
       </c>
@@ -49966,7 +49976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -50004,7 +50014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>9</v>
       </c>
@@ -50042,7 +50052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -50080,7 +50090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>9</v>
       </c>
@@ -50118,7 +50128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -50156,7 +50166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>9</v>
       </c>
@@ -50194,7 +50204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>9</v>
       </c>
@@ -50232,7 +50242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>9</v>
       </c>
@@ -50270,7 +50280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -50308,7 +50318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>9</v>
       </c>
@@ -50346,7 +50356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>9</v>
       </c>
@@ -50384,7 +50394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>9</v>
       </c>
@@ -50422,7 +50432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -50460,7 +50470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>9</v>
       </c>
@@ -50498,7 +50508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>9</v>
       </c>
@@ -50536,7 +50546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>9</v>
       </c>
@@ -50574,7 +50584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>9</v>
       </c>
@@ -50612,7 +50622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -50650,7 +50660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>9</v>
       </c>
@@ -50688,7 +50698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -50726,7 +50736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>9</v>
       </c>
@@ -50764,7 +50774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>9</v>
       </c>
@@ -50802,7 +50812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>9</v>
       </c>
@@ -50840,7 +50850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>9</v>
       </c>
@@ -50878,7 +50888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>9</v>
       </c>
@@ -50916,7 +50926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>9</v>
       </c>
@@ -50954,7 +50964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>9</v>
       </c>
@@ -50992,7 +51002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -51030,7 +51040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>9</v>
       </c>
@@ -51068,7 +51078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>9</v>
       </c>
@@ -51106,7 +51116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>9</v>
       </c>
@@ -51144,7 +51154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -51182,7 +51192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>9</v>
       </c>
@@ -51220,7 +51230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>9</v>
       </c>
@@ -51258,7 +51268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>9</v>
       </c>
@@ -51296,7 +51306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -51334,7 +51344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>9</v>
       </c>
@@ -51372,7 +51382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -51410,7 +51420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>9</v>
       </c>
@@ -51448,7 +51458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -51486,7 +51496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>9</v>
       </c>
@@ -51524,7 +51534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>9</v>
       </c>
@@ -51562,7 +51572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>9</v>
       </c>
@@ -51600,7 +51610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>9</v>
       </c>
@@ -51638,7 +51648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>9</v>
       </c>
@@ -51676,7 +51686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>9</v>
       </c>
@@ -51714,7 +51724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>9</v>
       </c>
@@ -51752,7 +51762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>9</v>
       </c>
@@ -51790,7 +51800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -51828,7 +51838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>9</v>
       </c>
@@ -51866,7 +51876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -51904,7 +51914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>9</v>
       </c>
@@ -51942,7 +51952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -51980,7 +51990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>9</v>
       </c>
@@ -52018,7 +52028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -52056,7 +52066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>9</v>
       </c>
@@ -52094,7 +52104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -52132,7 +52142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>9</v>
       </c>
@@ -52170,7 +52180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -52208,7 +52218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>9</v>
       </c>
@@ -52246,7 +52256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -52284,7 +52294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>9</v>
       </c>
@@ -52322,7 +52332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>9</v>
       </c>
@@ -52360,7 +52370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>9</v>
       </c>
@@ -52398,7 +52408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>9</v>
       </c>
@@ -52436,7 +52446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>9</v>
       </c>
@@ -52474,7 +52484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -52512,7 +52522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>9</v>
       </c>
@@ -52550,7 +52560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -52588,7 +52598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>9</v>
       </c>
@@ -52626,7 +52636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>9</v>
       </c>
@@ -52664,7 +52674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -52702,7 +52712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>9</v>
       </c>
@@ -52740,7 +52750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -52778,7 +52788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>9</v>
       </c>
@@ -52816,7 +52826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>9</v>
       </c>
@@ -52854,7 +52864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>9</v>
       </c>
@@ -52892,7 +52902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -52930,7 +52940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>9</v>
       </c>
@@ -52968,7 +52978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -53006,7 +53016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>9</v>
       </c>
@@ -53044,7 +53054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -53082,7 +53092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>9</v>
       </c>
@@ -53120,7 +53130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -53158,7 +53168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>9</v>
       </c>
@@ -53196,7 +53206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -53234,7 +53244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>9</v>
       </c>
@@ -53272,7 +53282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>9</v>
       </c>
@@ -53310,7 +53320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>9</v>
       </c>
@@ -53348,7 +53358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>9</v>
       </c>
@@ -53386,7 +53396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>9</v>
       </c>
@@ -53424,7 +53434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>9</v>
       </c>
@@ -53462,7 +53472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>9</v>
       </c>
@@ -53500,7 +53510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>9</v>
       </c>
@@ -53538,7 +53548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>9</v>
       </c>
@@ -53576,7 +53586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>9</v>
       </c>
@@ -53614,7 +53624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -53652,7 +53662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>9</v>
       </c>
@@ -53690,7 +53700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>9</v>
       </c>
@@ -53728,7 +53738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>9</v>
       </c>
@@ -53766,7 +53776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -53804,7 +53814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>9</v>
       </c>
@@ -53842,7 +53852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -53880,7 +53890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>9</v>
       </c>
@@ -53918,7 +53928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>9</v>
       </c>
@@ -53956,7 +53966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>9</v>
       </c>
@@ -53994,7 +54004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>9</v>
       </c>
@@ -54032,7 +54042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>9</v>
       </c>
@@ -54070,7 +54080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -54108,7 +54118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>9</v>
       </c>
@@ -54146,7 +54156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>9</v>
       </c>
@@ -54184,7 +54194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>9</v>
       </c>
@@ -54222,7 +54232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -54260,7 +54270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>9</v>
       </c>
@@ -54298,7 +54308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>9</v>
       </c>
@@ -54336,7 +54346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -54374,7 +54384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>9</v>
       </c>
@@ -54412,7 +54422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -54450,7 +54460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>9</v>
       </c>
@@ -54488,7 +54498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -54526,7 +54536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>9</v>
       </c>
@@ -54564,7 +54574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -54602,7 +54612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>9</v>
       </c>
@@ -54640,7 +54650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -54678,7 +54688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -54716,7 +54726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -54754,7 +54764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>9</v>
       </c>
@@ -54792,7 +54802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>9</v>
       </c>
@@ -54830,7 +54840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>9</v>
       </c>
@@ -54868,7 +54878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -54906,7 +54916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>9</v>
       </c>
@@ -54944,7 +54954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>9</v>
       </c>
@@ -54982,7 +54992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>9</v>
       </c>
@@ -55020,7 +55030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>9</v>
       </c>
@@ -55058,7 +55068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>9</v>
       </c>
@@ -55096,7 +55106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>9</v>
       </c>
@@ -55134,7 +55144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>9</v>
       </c>
@@ -55172,7 +55182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>9</v>
       </c>
